--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2698716.581703948</v>
+        <v>-2701637.8266882</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.88448735196173</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="C5" t="n">
-        <v>10.05797398556936</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.88448735196173</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>10.05797398556981</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>34.88448735196173</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="F6" t="n">
-        <v>34.88448735196173</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>30.72625645960829</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>34.88448735196173</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="S6" t="n">
-        <v>34.88448735196173</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>30.72625645960787</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>34.88448735196173</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.42574572344746</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="S7" t="n">
-        <v>34.88448735196173</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>34.88448735196173</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.72625645960786</v>
+        <v>1.300510736160842</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.28006716750396</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>13.46317442462584</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>34.31466295695061</v>
       </c>
       <c r="S8" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>26.96540421055336</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="C9" t="n">
-        <v>81.61928733384126</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>42.57147873238235</v>
       </c>
       <c r="F9" t="n">
         <v>92.66494928910228</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>39.04780860145888</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>29.5334954927797</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>35.02003772275614</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>17.06575411830538</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="S10" t="n">
-        <v>64.55353321553588</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="T10" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>20.50139324550924</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>266.3723613156442</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>130.7976098817785</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>94.67055111186143</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.54452890168409</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167829</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>165.3622009550366</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.2409687174131</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>123.5400971935024</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>13.89896094885273</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1933087134791</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947556</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1901,16 +1901,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D19" t="n">
         <v>117.0052706659985</v>
@@ -2014,13 +2014,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H19" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453016</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424834</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452961</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>42.04747230221578</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612653</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3193,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612639</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3253,7 +3253,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3323,13 +3323,13 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179197</v>
       </c>
       <c r="W35" t="n">
         <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262537</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038396</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453007</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612646</v>
+        <v>254.5831063612648</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179188</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262546</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038396</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3718,10 +3718,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684678</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894954</v>
       </c>
       <c r="G41" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V43" t="n">
         <v>220.5274409716141</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4034,7 +4034,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179188</v>
       </c>
       <c r="W44" t="n">
         <v>317.6307663651991</v>
@@ -4189,7 +4189,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612644</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.06423758570199</v>
+        <v>23.66781199223626</v>
       </c>
       <c r="C5" t="n">
-        <v>58.90466790330869</v>
+        <v>23.66781199223626</v>
       </c>
       <c r="D5" t="n">
-        <v>58.90466790330869</v>
+        <v>23.66781199223626</v>
       </c>
       <c r="E5" t="n">
-        <v>58.90466790330869</v>
+        <v>23.66781199223626</v>
       </c>
       <c r="F5" t="n">
-        <v>51.95916715410522</v>
+        <v>16.72231124303279</v>
       </c>
       <c r="G5" t="n">
-        <v>38.0276148992294</v>
+        <v>2.790758988156976</v>
       </c>
       <c r="H5" t="n">
-        <v>38.0276148992294</v>
+        <v>2.790758988156976</v>
       </c>
       <c r="I5" t="n">
-        <v>2.790758988156938</v>
+        <v>2.790758988156976</v>
       </c>
       <c r="J5" t="n">
-        <v>2.790758988156938</v>
+        <v>2.790758988156976</v>
       </c>
       <c r="K5" t="n">
-        <v>2.790758988156938</v>
+        <v>37.32640146659954</v>
       </c>
       <c r="L5" t="n">
-        <v>5.366676928012624</v>
+        <v>46.30652887678576</v>
       </c>
       <c r="M5" t="n">
-        <v>39.90231940645474</v>
+        <v>80.84217135522833</v>
       </c>
       <c r="N5" t="n">
-        <v>74.43796188489685</v>
+        <v>115.3778138336709</v>
       </c>
       <c r="O5" t="n">
-        <v>105.0023069294048</v>
+        <v>139.5379494078488</v>
       </c>
       <c r="P5" t="n">
-        <v>139.5379494078469</v>
+        <v>139.5379494078488</v>
       </c>
       <c r="Q5" t="n">
-        <v>139.5379494078469</v>
+        <v>139.5379494078488</v>
       </c>
       <c r="R5" t="n">
-        <v>139.5379494078469</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="S5" t="n">
-        <v>139.5379494078469</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="T5" t="n">
-        <v>139.5379494078469</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="U5" t="n">
-        <v>139.5379494078469</v>
+        <v>69.06423758570293</v>
       </c>
       <c r="V5" t="n">
-        <v>139.5379494078469</v>
+        <v>58.90466790330918</v>
       </c>
       <c r="W5" t="n">
-        <v>139.5379494078469</v>
+        <v>58.90466790330918</v>
       </c>
       <c r="X5" t="n">
-        <v>104.3010934967745</v>
+        <v>58.90466790330918</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.3010934967745</v>
+        <v>58.90466790330918</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.26447081030186</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="C6" t="n">
-        <v>73.26447081030186</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="D6" t="n">
-        <v>73.26447081030186</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="E6" t="n">
-        <v>73.26447081030186</v>
+        <v>69.06423758570293</v>
       </c>
       <c r="F6" t="n">
-        <v>38.0276148992294</v>
+        <v>33.82738167463</v>
       </c>
       <c r="G6" t="n">
-        <v>38.0276148992294</v>
+        <v>2.790758988156976</v>
       </c>
       <c r="H6" t="n">
-        <v>38.0276148992294</v>
+        <v>2.790758988156976</v>
       </c>
       <c r="I6" t="n">
-        <v>2.790758988156938</v>
+        <v>2.790758988156976</v>
       </c>
       <c r="J6" t="n">
-        <v>2.790758988156938</v>
+        <v>2.790758988156976</v>
       </c>
       <c r="K6" t="n">
-        <v>2.790758988156938</v>
+        <v>2.790758988156976</v>
       </c>
       <c r="L6" t="n">
-        <v>37.32640146659905</v>
+        <v>37.32640146659954</v>
       </c>
       <c r="M6" t="n">
-        <v>71.86204394504117</v>
+        <v>71.8620439450421</v>
       </c>
       <c r="N6" t="n">
-        <v>106.3976864234833</v>
+        <v>106.3976864234847</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3872152366655</v>
+        <v>119.387215236667</v>
       </c>
       <c r="P6" t="n">
-        <v>139.5379494078469</v>
+        <v>139.5379494078488</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.5379494078469</v>
+        <v>139.5379494078488</v>
       </c>
       <c r="R6" t="n">
-        <v>139.5379494078469</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="S6" t="n">
-        <v>104.3010934967745</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="T6" t="n">
-        <v>104.3010934967745</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="U6" t="n">
-        <v>104.3010934967745</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="V6" t="n">
-        <v>73.26447081030186</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="W6" t="n">
-        <v>73.26447081030186</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="X6" t="n">
-        <v>73.26447081030186</v>
+        <v>104.3010934967758</v>
       </c>
       <c r="Y6" t="n">
-        <v>73.26447081030186</v>
+        <v>104.3010934967758</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.0276148992294</v>
+        <v>38.0276148992299</v>
       </c>
       <c r="C7" t="n">
-        <v>38.0276148992294</v>
+        <v>38.0276148992299</v>
       </c>
       <c r="D7" t="n">
-        <v>38.0276148992294</v>
+        <v>38.0276148992299</v>
       </c>
       <c r="E7" t="n">
-        <v>2.790758988156938</v>
+        <v>38.0276148992299</v>
       </c>
       <c r="F7" t="n">
-        <v>2.790758988156938</v>
+        <v>38.0276148992299</v>
       </c>
       <c r="G7" t="n">
-        <v>2.790758988156938</v>
+        <v>38.0276148992299</v>
       </c>
       <c r="H7" t="n">
-        <v>2.790758988156938</v>
+        <v>38.0276148992299</v>
       </c>
       <c r="I7" t="n">
-        <v>2.790758988156938</v>
+        <v>38.0276148992299</v>
       </c>
       <c r="J7" t="n">
-        <v>2.790758988156938</v>
+        <v>2.790758988156976</v>
       </c>
       <c r="K7" t="n">
-        <v>37.32640146659905</v>
+        <v>2.790758988156976</v>
       </c>
       <c r="L7" t="n">
-        <v>37.32640146659905</v>
+        <v>37.32640146659954</v>
       </c>
       <c r="M7" t="n">
-        <v>71.86204394504117</v>
+        <v>70.46666445096363</v>
       </c>
       <c r="N7" t="n">
-        <v>71.86204394504117</v>
+        <v>105.0023069294062</v>
       </c>
       <c r="O7" t="n">
-        <v>105.0023069294048</v>
+        <v>139.5379494078488</v>
       </c>
       <c r="P7" t="n">
-        <v>139.5379494078469</v>
+        <v>139.5379494078488</v>
       </c>
       <c r="Q7" t="n">
-        <v>139.5379494078469</v>
+        <v>109.814973929619</v>
       </c>
       <c r="R7" t="n">
-        <v>139.5379494078469</v>
+        <v>74.57811801854609</v>
       </c>
       <c r="S7" t="n">
-        <v>104.3010934967745</v>
+        <v>74.57811801854609</v>
       </c>
       <c r="T7" t="n">
-        <v>104.3010934967745</v>
+        <v>39.34126210747317</v>
       </c>
       <c r="U7" t="n">
-        <v>104.3010934967745</v>
+        <v>39.34126210747317</v>
       </c>
       <c r="V7" t="n">
-        <v>104.3010934967745</v>
+        <v>39.34126210747317</v>
       </c>
       <c r="W7" t="n">
-        <v>104.3010934967745</v>
+        <v>39.34126210747317</v>
       </c>
       <c r="X7" t="n">
-        <v>69.06423758570199</v>
+        <v>39.34126210747317</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.0276148992294</v>
+        <v>38.0276148992299</v>
       </c>
     </row>
     <row r="8">
@@ -4787,13 +4787,13 @@
         <v>121.5588216556934</v>
       </c>
       <c r="E8" t="n">
-        <v>27.95786277781231</v>
+        <v>121.5588216556934</v>
       </c>
       <c r="F8" t="n">
-        <v>21.01236202860883</v>
+        <v>114.6133209064899</v>
       </c>
       <c r="G8" t="n">
-        <v>7.413195943128183</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="H8" t="n">
         <v>7.413195943128183</v>
@@ -4805,10 +4805,10 @@
         <v>7.413195943128183</v>
       </c>
       <c r="K8" t="n">
-        <v>21.18357364821455</v>
+        <v>21.18357364821463</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940386</v>
       </c>
       <c r="M8" t="n">
         <v>166.907006505615</v>
@@ -4826,28 +4826,28 @@
         <v>370.6597971564091</v>
       </c>
       <c r="R8" t="n">
-        <v>370.6597971564091</v>
+        <v>335.9985214423176</v>
       </c>
       <c r="S8" t="n">
-        <v>277.058838278528</v>
+        <v>242.3975625644365</v>
       </c>
       <c r="T8" t="n">
-        <v>277.058838278528</v>
+        <v>148.7966036865554</v>
       </c>
       <c r="U8" t="n">
-        <v>277.058838278528</v>
+        <v>121.5588216556934</v>
       </c>
       <c r="V8" t="n">
-        <v>277.058838278528</v>
+        <v>121.5588216556934</v>
       </c>
       <c r="W8" t="n">
-        <v>183.4578794006469</v>
+        <v>121.5588216556934</v>
       </c>
       <c r="X8" t="n">
-        <v>183.4578794006469</v>
+        <v>121.5588216556934</v>
       </c>
       <c r="Y8" t="n">
-        <v>183.4578794006469</v>
+        <v>121.5588216556934</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>277.058838278528</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="C9" t="n">
-        <v>194.6151136988904</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="D9" t="n">
-        <v>194.6151136988904</v>
+        <v>237.6166073679635</v>
       </c>
       <c r="E9" t="n">
         <v>194.6151136988904</v>
@@ -4890,10 +4890,10 @@
         <v>102.6982772648968</v>
       </c>
       <c r="M9" t="n">
-        <v>194.436577061108</v>
+        <v>134.8197310560415</v>
       </c>
       <c r="N9" t="n">
-        <v>286.1748768573193</v>
+        <v>226.5580308522527</v>
       </c>
       <c r="O9" t="n">
         <v>317.2247932514008</v>
@@ -4905,28 +4905,28 @@
         <v>370.6597971564091</v>
       </c>
       <c r="R9" t="n">
-        <v>370.6597971564091</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="S9" t="n">
-        <v>370.6597971564091</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="T9" t="n">
-        <v>370.6597971564091</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="U9" t="n">
-        <v>370.6597971564091</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="V9" t="n">
-        <v>370.6597971564091</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="W9" t="n">
-        <v>370.6597971564091</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="X9" t="n">
-        <v>370.6597971564091</v>
+        <v>331.2175662458446</v>
       </c>
       <c r="Y9" t="n">
-        <v>370.6597971564091</v>
+        <v>331.2175662458446</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.413195943128183</v>
+        <v>166.2197439276111</v>
       </c>
       <c r="C10" t="n">
-        <v>7.413195943128183</v>
+        <v>166.2197439276111</v>
       </c>
       <c r="D10" t="n">
-        <v>7.413195943128183</v>
+        <v>166.2197439276111</v>
       </c>
       <c r="E10" t="n">
-        <v>7.413195943128183</v>
+        <v>136.3879302985407</v>
       </c>
       <c r="F10" t="n">
-        <v>7.413195943128183</v>
+        <v>136.3879302985407</v>
       </c>
       <c r="G10" t="n">
-        <v>7.413195943128183</v>
+        <v>136.3879302985407</v>
       </c>
       <c r="H10" t="n">
-        <v>7.413195943128183</v>
+        <v>42.78697142065963</v>
       </c>
       <c r="I10" t="n">
-        <v>7.413195943128183</v>
+        <v>42.78697142065963</v>
       </c>
       <c r="J10" t="n">
         <v>7.413195943128183</v>
       </c>
       <c r="K10" t="n">
-        <v>7.413195943128183</v>
+        <v>80.27683974481521</v>
       </c>
       <c r="L10" t="n">
-        <v>7.413195943128183</v>
+        <v>80.27683974481521</v>
       </c>
       <c r="M10" t="n">
-        <v>95.44489776777534</v>
+        <v>172.0151395410265</v>
       </c>
       <c r="N10" t="n">
         <v>187.1831975639866</v>
@@ -4984,28 +4984,28 @@
         <v>353.4216616833734</v>
       </c>
       <c r="R10" t="n">
-        <v>353.4216616833734</v>
+        <v>259.8207028054923</v>
       </c>
       <c r="S10" t="n">
-        <v>288.2160725767715</v>
+        <v>166.2197439276111</v>
       </c>
       <c r="T10" t="n">
-        <v>194.6151136988904</v>
+        <v>166.2197439276111</v>
       </c>
       <c r="U10" t="n">
-        <v>101.0141548210093</v>
+        <v>166.2197439276111</v>
       </c>
       <c r="V10" t="n">
-        <v>101.0141548210093</v>
+        <v>166.2197439276111</v>
       </c>
       <c r="W10" t="n">
-        <v>7.413195943128183</v>
+        <v>166.2197439276111</v>
       </c>
       <c r="X10" t="n">
-        <v>7.413195943128183</v>
+        <v>166.2197439276111</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.413195943128183</v>
+        <v>166.2197439276111</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1232.150970528558</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C11" t="n">
-        <v>1232.150970528558</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F11" t="n">
         <v>821.1650657389509</v>
@@ -5036,55 +5036,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136264</v>
+        <v>3304.897343583405</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.7846764101</v>
+        <v>3051.366866857241</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.72178906653</v>
+        <v>3051.366866857241</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796415</v>
+        <v>2698.598211587127</v>
       </c>
       <c r="X11" t="n">
-        <v>2008.890142568492</v>
+        <v>2325.132453326047</v>
       </c>
       <c r="Y11" t="n">
-        <v>1618.75081059268</v>
+        <v>1934.993121350235</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>793.5809963705854</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C13" t="n">
-        <v>624.6448134426785</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D13" t="n">
-        <v>624.6448134426785</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E13" t="n">
-        <v>476.7317198602854</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="F13" t="n">
-        <v>329.841772362375</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G13" t="n">
-        <v>162.1389357370939</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1424.011591242373</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>1424.011591242373</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X13" t="n">
-        <v>1196.022040344355</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y13" t="n">
-        <v>975.2294612008251</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>387.2352036347374</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810113</v>
+        <v>97.4858416681011</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K14" t="n">
         <v>766.683188695145</v>
@@ -5285,7 +5285,7 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
         <v>2681.771598889755</v>
@@ -5297,19 +5297,19 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4249.020448755812</v>
+        <v>4159.581530673302</v>
       </c>
       <c r="T14" t="n">
-        <v>4249.020448755812</v>
+        <v>4159.581530673302</v>
       </c>
       <c r="U14" t="n">
-        <v>3995.55116954694</v>
+        <v>4159.581530673302</v>
       </c>
       <c r="V14" t="n">
         <v>3828.518643329732</v>
@@ -5349,13 +5349,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
         <v>519.5985603334505</v>
@@ -5364,19 +5364,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N15" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O15" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>409.5458327615895</v>
+        <v>776.237197498985</v>
       </c>
       <c r="C16" t="n">
-        <v>409.5458327615895</v>
+        <v>607.3010145710781</v>
       </c>
       <c r="D16" t="n">
-        <v>409.5458327615895</v>
+        <v>607.3010145710781</v>
       </c>
       <c r="E16" t="n">
-        <v>409.5458327615895</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="F16" t="n">
-        <v>409.5458327615895</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1861348795267</v>
+        <v>315.1533397258816</v>
       </c>
       <c r="H16" t="n">
-        <v>99.01976346890689</v>
+        <v>171.9869683152617</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869778</v>
+        <v>396.9405013869777</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042035</v>
+        <v>763.5004667042034</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
@@ -5458,28 +5458,28 @@
         <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
-        <v>2279.168624967671</v>
+        <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2093.462713255856</v>
+        <v>2019.061021685725</v>
       </c>
       <c r="T16" t="n">
-        <v>1873.16223609186</v>
+        <v>2019.061021685725</v>
       </c>
       <c r="U16" t="n">
-        <v>1584.078085876224</v>
+        <v>1729.97687147009</v>
       </c>
       <c r="V16" t="n">
-        <v>1329.393597670337</v>
+        <v>1475.292383264203</v>
       </c>
       <c r="W16" t="n">
-        <v>1039.976427633377</v>
+        <v>1185.875213227242</v>
       </c>
       <c r="X16" t="n">
-        <v>811.9868767353594</v>
+        <v>957.8856623292247</v>
       </c>
       <c r="Y16" t="n">
-        <v>591.1942975918292</v>
+        <v>957.8856623292247</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511625</v>
@@ -5513,22 +5513,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
         <v>3813.656640612704</v>
@@ -5543,22 +5543,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511625</v>
@@ -5595,22 +5595,22 @@
         <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.315654538068</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.315654538068</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D19" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G19" t="n">
         <v>251.2943450749445</v>
@@ -5671,28 +5671,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313938</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352544</v>
@@ -5701,10 +5701,10 @@
         <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357084</v>
@@ -5750,7 +5750,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
         <v>766.683188695145</v>
@@ -5759,7 +5759,7 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
         <v>2681.771598889755</v>
@@ -5771,7 +5771,7 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
         <v>4249.020448755812</v>
@@ -5841,16 +5841,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5920,7 +5920,7 @@
         <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
         <v>2087.878830313938</v>
@@ -5966,19 +5966,19 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796667</v>
       </c>
       <c r="G23" t="n">
-        <v>342.800273616284</v>
+        <v>342.800273616283</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511625</v>
@@ -5990,7 +5990,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -5999,10 +5999,10 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612704</v>
@@ -6014,25 +6014,25 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>1381.83934483395</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6151,10 +6151,10 @@
         <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902808</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354975</v>
@@ -6254,7 +6254,7 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
@@ -6266,10 +6266,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6315,16 +6315,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.315654538067</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6391,13 +6391,13 @@
         <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313938</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
         <v>2392.45563102869</v>
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6449,7 +6449,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
@@ -6461,10 +6461,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6488,16 +6488,16 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
@@ -6552,13 +6552,13 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
         <v>459.5287020443612</v>
@@ -6686,22 +6686,22 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050964</v>
@@ -6710,22 +6710,22 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
         <v>4017.391409283565</v>
@@ -6771,13 +6771,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
         <v>519.5985603334505</v>
@@ -6789,13 +6789,13 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,34 +6871,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6947,13 +6947,13 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
         <v>4142.907144767227</v>
@@ -6971,10 +6971,10 @@
         <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
         <v>2834.342818501803</v>
@@ -7023,16 +7023,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
         <v>2555.644190323788</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511621</v>
@@ -7096,7 +7096,7 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
         <v>857.3827676902787</v>
@@ -7120,22 +7120,22 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7160,25 +7160,25 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J38" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951443</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
@@ -7187,25 +7187,25 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V38" t="n">
         <v>3496.71823738206</v>
@@ -7245,10 +7245,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
@@ -7260,16 +7260,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
         <v>459.5287020443611</v>
@@ -7345,10 +7345,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7360,19 +7360,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J41" t="n">
         <v>337.4933016076836</v>
@@ -7424,37 +7424,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835859</v>
@@ -7497,19 +7497,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>1357.074366803431</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F43" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J44" t="n">
         <v>337.4933016076836</v>
@@ -7670,28 +7670,28 @@
         <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U44" t="n">
         <v>3795.85162740016</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
@@ -7737,16 +7737,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7801,31 +7801,31 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902781</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
         <v>2487.049233352543</v>
@@ -7834,19 +7834,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>52.84403871183616</v>
+        <v>52.84403871183591</v>
       </c>
       <c r="K5" t="n">
-        <v>27.94848709386798</v>
+        <v>62.83297444582981</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.468898454878902</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>6.468898454879337</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>48.90558241346301</v>
+        <v>14.02109506150086</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.18859846499257</v>
+        <v>59.18859846499225</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.48147365804711</v>
+        <v>50.48147365804697</v>
       </c>
       <c r="K6" t="n">
-        <v>7.336611653512847</v>
+        <v>7.33661165351262</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.8171356215647</v>
+        <v>36.81713562156452</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>85.17774960337931</v>
+        <v>50.29326225141743</v>
       </c>
       <c r="L7" t="n">
-        <v>34.15018385078028</v>
+        <v>69.0346712027423</v>
       </c>
       <c r="M7" t="n">
-        <v>67.59987304969601</v>
+        <v>66.19039881325337</v>
       </c>
       <c r="N7" t="n">
-        <v>24.00059209383168</v>
+        <v>58.88507944579369</v>
       </c>
       <c r="O7" t="n">
-        <v>76.16171615652873</v>
+        <v>77.57119039297191</v>
       </c>
       <c r="P7" t="n">
-        <v>90.66485245682583</v>
+        <v>55.78036510486396</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,16 +8611,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>33.14412614092826</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>12.20519387026837</v>
       </c>
       <c r="M10" t="n">
-        <v>98.49838161191168</v>
+        <v>102.2424199670269</v>
       </c>
       <c r="N10" t="n">
-        <v>94.07779426651247</v>
+        <v>16.73411570767296</v>
       </c>
       <c r="O10" t="n">
         <v>114.4882119352853</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>158.3707447719362</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>159.9014836333536</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>55.85412520622319</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>183.4165768941109</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>103.3587393628248</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>14.62343814115277</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>50.08446380245935</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516578</v>
+        <v>3.385819873481694</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067864</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9345864167829</v>
       </c>
       <c r="V14" t="n">
-        <v>162.3900575150984</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>22.89386545306681</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.23753279789133</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442971</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1358796.881252595</v>
+        <v>1358796.881252594</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1189858.758679947</v>
+        <v>1189858.758679948</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1336050.756096282</v>
+        <v>1336050.756096281</v>
       </c>
     </row>
     <row r="7">
@@ -26314,28 +26314,28 @@
         <v>19327.21330481903</v>
       </c>
       <c r="C2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="D2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="D2" t="n">
-        <v>20526.04424660708</v>
-      </c>
       <c r="E2" t="n">
-        <v>17049.85494854603</v>
+        <v>17049.85494854604</v>
       </c>
       <c r="F2" t="n">
-        <v>19168.57954878276</v>
+        <v>19168.57954878275</v>
       </c>
       <c r="G2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="H2" t="n">
         <v>20526.04424660711</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="J2" t="n">
         <v>20526.04424660706</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20526.04424660711</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20526.04424660705</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660707</v>
@@ -26344,16 +26344,16 @@
         <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156263648</v>
+        <v>56271.05156263724</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.46972945605</v>
+        <v>88049.46972945533</v>
       </c>
       <c r="E3" t="n">
-        <v>728470.1008399345</v>
+        <v>728470.1008399349</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963083</v>
+        <v>215052.1096963079</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177118</v>
+        <v>25288.16188177115</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.150740799685</v>
+        <v>8978.150740799805</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390403</v>
+        <v>39911.87677390385</v>
       </c>
       <c r="M3" t="n">
-        <v>184096.0922694313</v>
+        <v>184096.0922694315</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.2935957865</v>
+        <v>56542.2935957862</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329746.2345099984</v>
+        <v>329746.2345099982</v>
       </c>
       <c r="C4" t="n">
-        <v>339958.0729421573</v>
+        <v>339958.072942157</v>
       </c>
       <c r="D4" t="n">
         <v>312030.0719413564</v>
@@ -26433,7 +26433,7 @@
         <v>45229.37087109614</v>
       </c>
       <c r="H4" t="n">
-        <v>45229.37087109617</v>
+        <v>45229.37087109614</v>
       </c>
       <c r="I4" t="n">
         <v>45229.37087109614</v>
@@ -26442,22 +26442,22 @@
         <v>45229.37087109617</v>
       </c>
       <c r="K4" t="n">
-        <v>45229.37087109618</v>
+        <v>45229.37087109617</v>
       </c>
       <c r="L4" t="n">
-        <v>45229.37087109615</v>
+        <v>45229.37087109619</v>
       </c>
       <c r="M4" t="n">
-        <v>45229.37087109626</v>
+        <v>45229.37087109624</v>
       </c>
       <c r="N4" t="n">
-        <v>45229.37087109624</v>
+        <v>45229.37087109627</v>
       </c>
       <c r="O4" t="n">
         <v>45229.37087109625</v>
       </c>
       <c r="P4" t="n">
-        <v>45229.3708710962</v>
+        <v>45229.3708710963</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097133</v>
+        <v>43939.64495097137</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="H5" t="n">
         <v>95106.43410215528</v>
@@ -26497,19 +26497,19 @@
         <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665604.845005583</v>
+        <v>-665724.7280997619</v>
       </c>
       <c r="C6" t="n">
-        <v>-419642.725209158</v>
+        <v>-419642.7252091585</v>
       </c>
       <c r="D6" t="n">
-        <v>-428790.6170900416</v>
+        <v>-428790.6170900409</v>
       </c>
       <c r="E6" t="n">
-        <v>-799766.5973099595</v>
+        <v>-800114.2162397659</v>
       </c>
       <c r="F6" t="n">
-        <v>-302492.0119370087</v>
+        <v>-302627.7584067907</v>
       </c>
       <c r="G6" t="n">
         <v>-145097.9226084155</v>
       </c>
       <c r="H6" t="n">
-        <v>-119809.7607266444</v>
+        <v>-119809.7607266443</v>
       </c>
       <c r="I6" t="n">
         <v>-119809.7607266443</v>
@@ -26546,22 +26546,22 @@
         <v>-119809.7607266444</v>
       </c>
       <c r="K6" t="n">
-        <v>-128787.9114674441</v>
+        <v>-128787.9114674442</v>
       </c>
       <c r="L6" t="n">
-        <v>-159721.6375005484</v>
+        <v>-159721.6375005482</v>
       </c>
       <c r="M6" t="n">
-        <v>-303905.8529960758</v>
+        <v>-303905.8529960759</v>
       </c>
       <c r="N6" t="n">
-        <v>-176352.054322431</v>
+        <v>-176352.0543224306</v>
       </c>
       <c r="O6" t="n">
         <v>-119809.7607266444</v>
       </c>
       <c r="P6" t="n">
-        <v>-119809.7607266444</v>
+        <v>-119809.7607266445</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H2" t="n">
         <v>31.61020235221385</v>
@@ -26713,16 +26713,16 @@
         <v>31.61020235221394</v>
       </c>
       <c r="L2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221391</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221395</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221395</v>
@@ -26738,7 +26738,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.7370697234889</v>
+        <v>375.7370697234896</v>
       </c>
       <c r="D3" t="n">
         <v>457.5913187641656</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196173</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="D4" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26823,13 +26823,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432463</v>
+        <v>49.41884193432531</v>
       </c>
       <c r="D3" t="n">
-        <v>81.85424904067668</v>
+        <v>81.854249040676</v>
       </c>
       <c r="E3" t="n">
-        <v>632.1853818291324</v>
+        <v>632.1853818291327</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268249</v>
+        <v>188.3831700268247</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196173</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="D4" t="n">
-        <v>57.78046193714056</v>
+        <v>57.7804619371401</v>
       </c>
       <c r="E4" t="n">
-        <v>738.73650611319</v>
+        <v>738.7365061131906</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866607</v>
+        <v>230.8536567866599</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196172</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714064</v>
+        <v>57.78046193713995</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131898</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.853656786661</v>
+        <v>230.8536567866597</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196173</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714056</v>
+        <v>57.7804619371401</v>
       </c>
       <c r="M4" t="n">
-        <v>738.73650611319</v>
+        <v>738.7365061131906</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866607</v>
+        <v>230.8536567866599</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>224.3630968915444</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>326.0400019133721</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>313.8769754722458</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.57895837355434</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>158.6458343615066</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347.8493543115188</v>
+        <v>347.8493543115184</v>
       </c>
       <c r="C5" t="n">
-        <v>355.2149177854382</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>324.0053859738348</v>
+        <v>324.0053859738347</v>
       </c>
       <c r="I5" t="n">
-        <v>117.3578207892389</v>
+        <v>152.2423081412005</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.98512314308692</v>
+        <v>20.10063579112455</v>
       </c>
       <c r="S5" t="n">
         <v>174.5995329980081</v>
@@ -27670,16 +27670,16 @@
         <v>216.4836323873893</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2248128452119</v>
+        <v>216.3403254932497</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>317.6942844845651</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>334.8466133265073</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>122.7605931034388</v>
       </c>
       <c r="F6" t="n">
-        <v>110.1847250414222</v>
+        <v>110.1847250414217</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5353279943714</v>
+        <v>105.8090715347631</v>
       </c>
       <c r="H6" t="n">
         <v>104.4300383163915</v>
       </c>
       <c r="I6" t="n">
-        <v>26.68633420389308</v>
+        <v>61.57082155585476</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.97921189787228</v>
+        <v>15.09472454590999</v>
       </c>
       <c r="S6" t="n">
-        <v>121.7869244096216</v>
+        <v>156.6714117615833</v>
       </c>
       <c r="T6" t="n">
         <v>196.9071591941057</v>
@@ -27752,7 +27752,7 @@
         <v>225.8882117409196</v>
       </c>
       <c r="V6" t="n">
-        <v>202.0743306898174</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>111.5494752946074</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>135.0744384248763</v>
       </c>
       <c r="J7" t="n">
-        <v>45.45578353897486</v>
+        <v>10.57129618701259</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.42574572344756</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.8278906090978</v>
+        <v>111.9434032571355</v>
       </c>
       <c r="S7" t="n">
-        <v>177.3241112971428</v>
+        <v>212.2085986491046</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0505661041825</v>
+        <v>190.1660787522203</v>
       </c>
       <c r="U7" t="n">
         <v>286.2820716119279</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>190.8251680370754</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.8583968924869</v>
+        <v>217.2841426159339</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>321.4537744959766</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>289.2654207831595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.6353766150897</v>
+        <v>227.9704273259875</v>
       </c>
       <c r="I8" t="n">
         <v>139.5561335235496</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>34.31466295695061</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.43607637216446</v>
+        <v>74.43607637216448</v>
       </c>
       <c r="T8" t="n">
-        <v>215.0431621354273</v>
+        <v>122.378212846325</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1984878605957</v>
+        <v>224.2330836500424</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>256.5760194283107</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.86823436076506</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>91.08921165447448</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>54.78011627553647</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>115.0736017230186</v>
       </c>
       <c r="F9" t="n">
         <v>52.4042631042816</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.04780860145888</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>153.4011028494393</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>116.9004671537895</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.1658146852775</v>
       </c>
       <c r="H10" t="n">
-        <v>154.8907084131551</v>
+        <v>62.2257591240528</v>
       </c>
       <c r="I10" t="n">
         <v>130.6355227555885</v>
       </c>
       <c r="J10" t="n">
-        <v>35.02003772275614</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>140.1909870721275</v>
+        <v>47.5260377830252</v>
       </c>
       <c r="S10" t="n">
-        <v>145.0826950169953</v>
+        <v>116.9712789434289</v>
       </c>
       <c r="T10" t="n">
-        <v>131.7549365355865</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U10" t="n">
-        <v>193.6090710852151</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>193.8580490474887</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221611</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="20">
@@ -28992,10 +28992,10 @@
         <v>31.61020235221385</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221605</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221616</v>
       </c>
       <c r="P22" t="n">
         <v>31.61020235221385</v>
@@ -29223,13 +29223,13 @@
         <v>31.61020235221385</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221616</v>
       </c>
       <c r="M25" t="n">
         <v>31.61020235221385</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221605</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O25" t="n">
         <v>31.61020235221385</v>
@@ -29463,7 +29463,7 @@
         <v>31.61020235221385</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221611</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N28" t="n">
         <v>31.61020235221385</v>
@@ -29472,7 +29472,7 @@
         <v>31.61020235221385</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221594</v>
       </c>
       <c r="Q28" t="n">
         <v>31.61020235221385</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522152</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221537</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221611</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221424</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221514</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221605</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="44">
@@ -30754,7 +30754,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221611</v>
       </c>
       <c r="W44" t="n">
         <v>31.61020235221395</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782807994</v>
+        <v>1.510500782807997</v>
       </c>
       <c r="H5" t="n">
-        <v>15.46941614193238</v>
+        <v>15.4694161419324</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920526</v>
+        <v>58.23358142920537</v>
       </c>
       <c r="J5" t="n">
-        <v>128.2018658148501</v>
+        <v>128.2018658148504</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511126</v>
+        <v>192.1413639511129</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829728</v>
+        <v>238.3683522829732</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792345</v>
+        <v>265.2307205792349</v>
       </c>
       <c r="N5" t="n">
-        <v>264.2975509485527</v>
+        <v>264.2975509485531</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693407</v>
+        <v>254.5023887693411</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2119006937683</v>
+        <v>217.2119006937687</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.1170914094569</v>
+        <v>163.1170914094572</v>
       </c>
       <c r="R5" t="n">
-        <v>94.88399479806276</v>
+        <v>94.88399479806294</v>
       </c>
       <c r="S5" t="n">
-        <v>34.4205365882372</v>
+        <v>34.42053658823727</v>
       </c>
       <c r="T5" t="n">
-        <v>6.612217176741999</v>
+        <v>6.612217176742011</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1208400626246395</v>
+        <v>0.1208400626246398</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8081891688392026</v>
+        <v>0.808189168839204</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104931</v>
+        <v>7.805405920104945</v>
       </c>
       <c r="I6" t="n">
-        <v>27.82581129556027</v>
+        <v>27.82581129556032</v>
       </c>
       <c r="J6" t="n">
-        <v>76.35615300861959</v>
+        <v>76.35615300861973</v>
       </c>
       <c r="K6" t="n">
-        <v>130.5048273208461</v>
+        <v>130.5048273208464</v>
       </c>
       <c r="L6" t="n">
-        <v>173.4388671318359</v>
+        <v>173.4388671318364</v>
       </c>
       <c r="M6" t="n">
-        <v>177.01852127398</v>
+        <v>177.0185212739805</v>
       </c>
       <c r="N6" t="n">
-        <v>166.226199435295</v>
+        <v>166.2261994352955</v>
       </c>
       <c r="O6" t="n">
-        <v>155.716980619376</v>
+        <v>155.7169806193761</v>
       </c>
       <c r="P6" t="n">
-        <v>154.3286843549176</v>
+        <v>154.3286843549178</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.1646384644568</v>
+        <v>103.164638464457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477086</v>
+        <v>50.17862225477095</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225448</v>
+        <v>15.0117593422545</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715908</v>
+        <v>3.257569500715913</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521071</v>
+        <v>0.05317034005521081</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210455</v>
+        <v>0.6775586503210467</v>
       </c>
       <c r="H7" t="n">
-        <v>6.024112363763481</v>
+        <v>6.024112363763493</v>
       </c>
       <c r="I7" t="n">
-        <v>20.37603650238199</v>
+        <v>20.37603650238203</v>
       </c>
       <c r="J7" t="n">
-        <v>47.90339657769791</v>
+        <v>47.903396577698</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911781</v>
+        <v>78.71999591911795</v>
       </c>
       <c r="L7" t="n">
-        <v>100.734492430458</v>
+        <v>100.7344924304582</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2103982498708</v>
+        <v>106.210398249871</v>
       </c>
       <c r="N7" t="n">
-        <v>103.6849523714015</v>
+        <v>103.6849523714017</v>
       </c>
       <c r="O7" t="n">
-        <v>95.7698354108329</v>
+        <v>95.76983541083308</v>
       </c>
       <c r="P7" t="n">
-        <v>81.94763894428351</v>
+        <v>81.94763894428365</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824682</v>
+        <v>56.73629752824692</v>
       </c>
       <c r="R7" t="n">
-        <v>30.46550076807173</v>
+        <v>30.46550076807178</v>
       </c>
       <c r="S7" t="n">
-        <v>11.80799938786767</v>
+        <v>11.80799938786769</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324099012</v>
+        <v>2.895023324099017</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03695774456296616</v>
+        <v>0.03695774456296623</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,13 +31610,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>234.7989832111206</v>
+        <v>174.5799468423665</v>
       </c>
       <c r="N9" t="n">
         <v>224.0066613724356</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9597963576581</v>
+        <v>234.1788327264122</v>
       </c>
       <c r="P9" t="n">
         <v>187.9491588335306</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,22 +32084,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N15" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O15" t="n">
-        <v>530.1489483592447</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486998</v>
@@ -32227,46 +32227,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,34 +32306,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>584.393252749783</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32388,7 +32388,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838147</v>
@@ -32397,13 +32397,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
         <v>325.7840929246177</v>
@@ -32418,10 +32418,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32561,19 +32561,19 @@
         <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>548.1235910649146</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486998</v>
@@ -32795,19 +32795,19 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>554.7018671605763</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33035,19 +33035,19 @@
         <v>696.597129487967</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O27" t="n">
-        <v>559.3781234260257</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33272,16 +33272,16 @@
         <v>696.597129487967</v>
       </c>
       <c r="N30" t="n">
-        <v>573.1387203886723</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33509,16 +33509,16 @@
         <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1387203886723</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33743,19 +33743,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>616.0816594412372</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P36" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33980,19 +33980,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>555.1640776830027</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34144,7 +34144,7 @@
         <v>916.8452708117591</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565669</v>
       </c>
       <c r="P41" t="n">
         <v>738.8984405829625</v>
@@ -34217,22 +34217,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>529.6867378368194</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34381,7 +34381,7 @@
         <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
         <v>738.8984405829625</v>
@@ -34390,7 +34390,7 @@
         <v>554.8819566972011</v>
       </c>
       <c r="R44" t="n">
-        <v>322.770693358156</v>
+        <v>322.770693358155</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34457,19 +34457,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>548.1235910649156</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="L5" t="n">
-        <v>2.601937312985541</v>
+        <v>9.070835767864869</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196173</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196173</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="O5" t="n">
-        <v>30.87307580253329</v>
+        <v>24.40417734765441</v>
       </c>
       <c r="P5" t="n">
-        <v>34.88448735196173</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.88448735196173</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="M6" t="n">
-        <v>34.88448735196173</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="N6" t="n">
-        <v>34.88448735196173</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="O6" t="n">
-        <v>13.12073617493152</v>
+        <v>13.12073617493169</v>
       </c>
       <c r="P6" t="n">
-        <v>20.35427694058731</v>
+        <v>20.3542769405876</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>34.88448735196173</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="M7" t="n">
-        <v>34.88448735196173</v>
+        <v>33.47501311551929</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="O7" t="n">
-        <v>33.47501311551883</v>
+        <v>34.88448735196219</v>
       </c>
       <c r="P7" t="n">
-        <v>34.88448735196173</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>75.15371678069204</v>
       </c>
       <c r="M9" t="n">
-        <v>92.66494928910228</v>
+        <v>32.44591292034816</v>
       </c>
       <c r="N9" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="O9" t="n">
-        <v>31.36355191321363</v>
+        <v>91.58258828196773</v>
       </c>
       <c r="P9" t="n">
         <v>53.97475141920035</v>
@@ -35331,16 +35331,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>73.59964020372426</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>88.92091093398703</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="N10" t="n">
-        <v>92.66494928910228</v>
+        <v>15.32127073026277</v>
       </c>
       <c r="O10" t="n">
         <v>92.66494928910228</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O15" t="n">
-        <v>387.5527039148003</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>441.7970083053385</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P18" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.494253889512</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>416.7818789815813</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,10 +36288,10 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010929</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908735</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553058</v>
@@ -36443,19 +36443,19 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>412.567833238558</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,13 +36519,13 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817371</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010929</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
@@ -36683,19 +36683,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O27" t="n">
-        <v>416.7818789815813</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.494253889512</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010907</v>
@@ -36768,7 +36768,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553079</v>
       </c>
       <c r="Q28" t="n">
         <v>138.450299564158</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116843</v>
+        <v>255.063527911684</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721832</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>441.7970083053389</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>441.7970083053389</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37391,19 +37391,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>484.7399473579039</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
@@ -37628,19 +37628,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>412.5678332385582</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
@@ -37719,7 +37719,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641584</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348801</v>
       </c>
       <c r="P41" t="n">
         <v>507.665444827693</v>
@@ -37865,22 +37865,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>387.552703914801</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4502995641581</v>
@@ -38029,7 +38029,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
         <v>507.665444827693</v>
@@ -38038,7 +38038,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440229</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>416.7818789815822</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
